--- a/Divisions/E1.xlsx
+++ b/Divisions/E1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11894" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12018" uniqueCount="367">
   <si>
     <t>Team</t>
   </si>
@@ -819,6 +820,306 @@
   <si>
     <t>2.0667</t>
   </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Barnsley,W W L W W L</t>
+  </si>
+  <si>
+    <t>Birmingham,D W W D W L</t>
+  </si>
+  <si>
+    <t>Blackburn,L D W L W D</t>
+  </si>
+  <si>
+    <t>Bournemouth,W W W W L L</t>
+  </si>
+  <si>
+    <t>Brentford,W D D W W W</t>
+  </si>
+  <si>
+    <t>Bristol City,L D D L L L</t>
+  </si>
+  <si>
+    <t>Cardiff,L D D D W W</t>
+  </si>
+  <si>
+    <t>Coventry,L W W W L D</t>
+  </si>
+  <si>
+    <t>Derby,L L L L L L</t>
+  </si>
+  <si>
+    <t>Huddersfield,D L W L L D</t>
+  </si>
+  <si>
+    <t>Luton,L W W D W D</t>
+  </si>
+  <si>
+    <t>Middlesbrough,D L L W W D</t>
+  </si>
+  <si>
+    <t>Millwall,W L D L L W</t>
+  </si>
+  <si>
+    <t>Norwich,W W L L W W</t>
+  </si>
+  <si>
+    <t>Nottm Forest,W D L D D D</t>
+  </si>
+  <si>
+    <t>Preston,W L D W W W</t>
+  </si>
+  <si>
+    <t>QPR,W L W W L W</t>
+  </si>
+  <si>
+    <t>Reading,W L D D D L</t>
+  </si>
+  <si>
+    <t>Rotherham,L L L L L D</t>
+  </si>
+  <si>
+    <t>Sheffield Weds,L L D W L D</t>
+  </si>
+  <si>
+    <t>Stoke,L L D L D L</t>
+  </si>
+  <si>
+    <t>Swansea,W W D L D W</t>
+  </si>
+  <si>
+    <t>Watford,D W L W W L</t>
+  </si>
+  <si>
+    <t>Wycombe,W L D W L W</t>
+  </si>
+  <si>
+    <t>Barnsley,2 2 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Birmingham,0 2 1 1 2 0</t>
+  </si>
+  <si>
+    <t>Blackburn,0 2 2 0 5 1</t>
+  </si>
+  <si>
+    <t>Bournemouth,4 2 3 4 0 0</t>
+  </si>
+  <si>
+    <t>Brentford,5 0 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Bristol City,1 0 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Cardiff,0 2 1 1 2 4</t>
+  </si>
+  <si>
+    <t>Coventry,1 1 2 3 0 1</t>
+  </si>
+  <si>
+    <t>Derby,1 0 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Huddersfield,0 1 2 0 2 1</t>
+  </si>
+  <si>
+    <t>Luton,1 3 1 0 3 1</t>
+  </si>
+  <si>
+    <t>Middlesbrough,1 0 1 2 3 1</t>
+  </si>
+  <si>
+    <t>Millwall,2 0 0 1 0 4</t>
+  </si>
+  <si>
+    <t>Norwich,7 1 1 0 3 4</t>
+  </si>
+  <si>
+    <t>Nottm Forest,3 0 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Preston,1 0 0 3 1 2</t>
+  </si>
+  <si>
+    <t>QPR,4 1 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Reading,3 0 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Rotherham,0 0 1 0 0 1</t>
+  </si>
+  <si>
+    <t>Sheffield Weds,1 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Stoke,1 0 0 2 1 0</t>
+  </si>
+  <si>
+    <t>Swansea,3 2 2 0 2 2</t>
+  </si>
+  <si>
+    <t>Watford,1 2 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Wycombe,3 1 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Barnsley,1 0 2 0 0 2</t>
+  </si>
+  <si>
+    <t>Birmingham,0 0 0 1 1 4</t>
+  </si>
+  <si>
+    <t>Blackburn,2 2 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Bournemouth,1 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Brentford,0 0 1 0 0 0</t>
+  </si>
+  <si>
+    <t>Bristol City,3 0 1 2 3 4</t>
+  </si>
+  <si>
+    <t>Cardiff,5 2 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Coventry,4 0 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Derby,3 1 2 3 2 2</t>
+  </si>
+  <si>
+    <t>Huddersfield,0 2 0 1 5 1</t>
+  </si>
+  <si>
+    <t>Luton,2 1 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Middlesbrough,1 2 2 1 1 1</t>
+  </si>
+  <si>
+    <t>Millwall,1 3 0 4 1 1</t>
+  </si>
+  <si>
+    <t>Norwich,0 0 3 1 1 1</t>
+  </si>
+  <si>
+    <t>Nottm Forest,1 0 2 1 1 0</t>
+  </si>
+  <si>
+    <t>Preston,0 5 0 0 0 0</t>
+  </si>
+  <si>
+    <t>QPR,1 3 1 0 3 0</t>
+  </si>
+  <si>
+    <t>Reading,1 2 1 0 2 4</t>
+  </si>
+  <si>
+    <t>Rotherham,1 1 2 1 1 1</t>
+  </si>
+  <si>
+    <t>Sheffield Weds,4 2 1 0 3 0</t>
+  </si>
+  <si>
+    <t>Stoke,2 2 0 3 1 2</t>
+  </si>
+  <si>
+    <t>Swansea,0 0 2 1 2 1</t>
+  </si>
+  <si>
+    <t>Watford,1 0 1 0 0 2</t>
+  </si>
+  <si>
+    <t>Wycombe,0 3 2 1 2 0</t>
+  </si>
+  <si>
+    <t>Barnsley,3 2 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Birmingham,0 2 1 2 3 4</t>
+  </si>
+  <si>
+    <t>Blackburn,2 4 3 1 7 2</t>
+  </si>
+  <si>
+    <t>Bournemouth,5 3 4 5 1 1</t>
+  </si>
+  <si>
+    <t>Brentford,5 0 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Bristol City,4 0 2 3 5 5</t>
+  </si>
+  <si>
+    <t>Cardiff,5 4 2 2 3 4</t>
+  </si>
+  <si>
+    <t>Coventry,5 1 2 5 1 2</t>
+  </si>
+  <si>
+    <t>Derby,4 1 3 3 3 3</t>
+  </si>
+  <si>
+    <t>Huddersfield,0 3 2 1 7 2</t>
+  </si>
+  <si>
+    <t>Luton,3 4 1 0 5 2</t>
+  </si>
+  <si>
+    <t>Middlesbrough,2 2 3 3 4 2</t>
+  </si>
+  <si>
+    <t>Millwall,3 3 0 5 1 5</t>
+  </si>
+  <si>
+    <t>Norwich,7 1 4 1 4 5</t>
+  </si>
+  <si>
+    <t>Nottm Forest,4 0 2 2 2 0</t>
+  </si>
+  <si>
+    <t>Preston,1 5 0 3 1 2</t>
+  </si>
+  <si>
+    <t>QPR,5 4 3 1 4 2</t>
+  </si>
+  <si>
+    <t>Reading,4 2 2 0 4 5</t>
+  </si>
+  <si>
+    <t>Rotherham,1 1 3 1 1 2</t>
+  </si>
+  <si>
+    <t>Sheffield Weds,5 2 2 1 4 0</t>
+  </si>
+  <si>
+    <t>Stoke,3 2 0 5 2 2</t>
+  </si>
+  <si>
+    <t>Swansea,3 2 4 1 4 3</t>
+  </si>
+  <si>
+    <t>Watford,2 2 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Wycombe,3 4 4 3 3 1</t>
+  </si>
 </sst>
 </file>
 
@@ -36924,4 +37225,440 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>